--- a/SOURS/all-clone.xlsx
+++ b/SOURS/all-clone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ДОКУМЕНТЫ\1 смена СВК\Яицких Т.Е\ОПИСИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791686FB-B42A-41CE-8FF5-BC48A899A343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D15F4F-D03F-475D-858F-35B13336D650}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="997">
   <si>
     <t>Примечание</t>
   </si>
@@ -3050,6 +3050,21 @@
   </si>
   <si>
     <t>ООО Ювенко Сочи</t>
+  </si>
+  <si>
+    <t>CHEVROLET Kilt Aveo</t>
+  </si>
+  <si>
+    <t>А 853 АО 123</t>
+  </si>
+  <si>
+    <t>Иванушкина Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер</t>
+  </si>
+  <si>
+    <t>БФ вдоль контроль</t>
   </si>
 </sst>
 </file>
@@ -3450,7 +3465,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
@@ -4908,7 +4923,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>692</v>
+        <v>996</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>946</v>
@@ -5551,16 +5566,16 @@
         <v>883</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>9</v>
+        <v>992</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>9</v>
+        <v>993</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>9</v>
+        <v>994</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>9</v>
+        <v>995</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>9</v>
@@ -10101,7 +10116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>7</v>
       </c>
@@ -10423,7 +10438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>7</v>
       </c>

--- a/SOURS/all-clone.xlsx
+++ b/SOURS/all-clone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ДОКУМЕНТЫ\1 смена СВК\Яицких Т.Е\ОПИСИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D15F4F-D03F-475D-858F-35B13336D650}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9CA63-5F91-4B49-918A-25C23B38E606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1444,9 +1444,6 @@
     <t>А 004 ВК 161</t>
   </si>
   <si>
-    <t>Косметолог  ОСК</t>
-  </si>
-  <si>
     <t>Киа Церато</t>
   </si>
   <si>
@@ -1690,9 +1687,6 @@
     <t>Зам.гл. бухгалтера</t>
   </si>
   <si>
-    <t>HYUNDAI  IX 35</t>
-  </si>
-  <si>
     <t>У 611 ТА 123</t>
   </si>
   <si>
@@ -2020,9 +2014,6 @@
     <t>Павлов Михаил Викторович</t>
   </si>
   <si>
-    <t>Печура Павел  Сергеевич</t>
-  </si>
-  <si>
     <t>Полтавченко Андрей Николаевич</t>
   </si>
   <si>
@@ -2035,9 +2026,6 @@
     <t>Кобзева Татьяна Павловна</t>
   </si>
   <si>
-    <t>Соловьев Олег  Николаевич</t>
-  </si>
-  <si>
     <t>Кочегаров Андрей Вальянович</t>
   </si>
   <si>
@@ -2188,9 +2176,6 @@
     <t>Чеботаев Владимир Юрьевич. Чеботаева Наиля Фидаиловна</t>
   </si>
   <si>
-    <t xml:space="preserve">БФ   </t>
-  </si>
-  <si>
     <t>Номер-телефона</t>
   </si>
   <si>
@@ -2524,39 +2509,12 @@
     <t>Рябов Юрий Николаевич</t>
   </si>
   <si>
-    <t>8-902-895-11-27  8-904-815-00-30</t>
-  </si>
-  <si>
-    <t>8-902-895-11-27  8-904-815-00-31</t>
-  </si>
-  <si>
-    <t>8-918-108-20-19  8-989-750-67-78</t>
-  </si>
-  <si>
-    <t>8-928-459-74-87  8-905-885-97-91</t>
-  </si>
-  <si>
-    <t>8-928-850-17-95  8-918-104-19-66</t>
-  </si>
-  <si>
-    <t>8-928-457-08-22  8-928-259-02-37</t>
-  </si>
-  <si>
-    <t>8-928-457-34-41  8-988-282-38-80</t>
-  </si>
-  <si>
     <t>Рук. санаторно-курортного направления</t>
   </si>
   <si>
     <t>Вед.спец. по ПБ</t>
   </si>
   <si>
-    <t>8-918-359-96-98 Евгений  8-989-160-60-99 Юлия Парамок</t>
-  </si>
-  <si>
-    <t>8-928-666-99-39  8-918-111-26-61</t>
-  </si>
-  <si>
     <t>У 318 ЕЕ 123</t>
   </si>
   <si>
@@ -3065,6 +3023,48 @@
   </si>
   <si>
     <t>БФ вдоль контроль</t>
+  </si>
+  <si>
+    <t>8-928-457-08-22 \, 8-928-259-02-37</t>
+  </si>
+  <si>
+    <t>8-928-850-17-95 \, 8-918-104-19-66</t>
+  </si>
+  <si>
+    <t>8-928-459-74-87 \, 8-905-885-97-91</t>
+  </si>
+  <si>
+    <t>8-918-108-20-19 \, 8-989-750-67-78</t>
+  </si>
+  <si>
+    <t>Печура Павел \, Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БФ \,  </t>
+  </si>
+  <si>
+    <t>Соловьев Олег \, Николаевич</t>
+  </si>
+  <si>
+    <t>Косметолог \, ОСК</t>
+  </si>
+  <si>
+    <t>HYUNDAI \, IX 35</t>
+  </si>
+  <si>
+    <t>8-918-359-96-98 Евгений \, 8-989-160-60-99 Юлия Парамок</t>
+  </si>
+  <si>
+    <t>8-902-895-11-27 \, 8-904-815-00-30</t>
+  </si>
+  <si>
+    <t>8-902-895-11-27 \, 8-904-815-00-31</t>
+  </si>
+  <si>
+    <t>8-928-457-34-41 \, 8-988-282-38-80</t>
+  </si>
+  <si>
+    <t>8-928-666-99-39 \, 8-918-111-26-61</t>
   </si>
 </sst>
 </file>
@@ -3464,10 +3464,10 @@
   </sheetPr>
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,13 +3483,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>349</v>
@@ -3498,27 +3498,27 @@
         <v>350</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>354</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>821</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3532,13 +3532,13 @@
         <v>357</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3546,19 +3546,19 @@
         <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>358</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>820</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3572,18 +3572,18 @@
         <v>360</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>361</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>362</v>
@@ -3592,13 +3592,13 @@
         <v>363</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>364</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3612,13 +3612,13 @@
         <v>378</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>379</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3629,21 +3629,21 @@
         <v>381</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>382</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>819</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>383</v>
@@ -3652,18 +3652,18 @@
         <v>384</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>385</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>386</v>
@@ -3672,18 +3672,18 @@
         <v>387</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>388</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>389</v>
@@ -3692,13 +3692,13 @@
         <v>390</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>391</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3712,18 +3712,18 @@
         <v>395</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>396</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>397</v>
@@ -3732,18 +3732,18 @@
         <v>398</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>399</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>403</v>
@@ -3752,13 +3752,13 @@
         <v>404</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>405</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3772,18 +3772,18 @@
         <v>406</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>407</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>818</v>
+        <v>986</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>411</v>
@@ -3792,18 +3792,18 @@
         <v>412</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>413</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>414</v>
@@ -3812,18 +3812,18 @@
         <v>415</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>416</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>417</v>
@@ -3832,13 +3832,13 @@
         <v>418</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>419</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3852,18 +3852,18 @@
         <v>421</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>426</v>
@@ -3872,18 +3872,18 @@
         <v>427</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>399</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>428</v>
@@ -3892,18 +3892,18 @@
         <v>429</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>648</v>
+        <v>987</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>430</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>414</v>
@@ -3912,33 +3912,33 @@
         <v>431</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>231</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>704</v>
+        <v>988</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>435</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>198</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3952,18 +3952,18 @@
         <v>439</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>440</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>441</v>
@@ -3972,38 +3972,38 @@
         <v>442</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>416</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>443</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>653</v>
+        <v>989</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>444</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>445</v>
@@ -4012,18 +4012,18 @@
         <v>446</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>447</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>448</v>
@@ -4032,13 +4032,13 @@
         <v>449</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>450</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4052,18 +4052,18 @@
         <v>452</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>453</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>454</v>
@@ -4072,133 +4072,133 @@
         <v>455</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>456</v>
+        <v>990</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>458</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>416</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="F33" s="5" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>472</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4206,219 +4206,219 @@
         <v>192</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>478</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="D42" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>492</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>495</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>498</v>
-      </c>
       <c r="F45" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>501</v>
-      </c>
       <c r="F46" s="5" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>504</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4426,19 +4426,19 @@
         <v>192</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>507</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4446,19 +4446,19 @@
         <v>192</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>513</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4466,39 +4466,39 @@
         <v>192</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>516</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>518</v>
-      </c>
       <c r="D51" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4506,59 +4506,59 @@
         <v>192</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>520</v>
-      </c>
       <c r="D52" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>522</v>
-      </c>
       <c r="D53" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>524</v>
-      </c>
       <c r="D54" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4566,239 +4566,239 @@
         <v>192</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>529</v>
-      </c>
       <c r="F55" s="5" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>531</v>
-      </c>
       <c r="D56" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>537</v>
-      </c>
       <c r="F58" s="5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>540</v>
-      </c>
       <c r="F59" s="5" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>374</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>551</v>
-      </c>
       <c r="F64" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>554</v>
-      </c>
       <c r="F65" s="5" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>557</v>
-      </c>
       <c r="F66" s="5" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4806,139 +4806,139 @@
         <v>192</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>560</v>
-      </c>
       <c r="F67" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>565</v>
-      </c>
       <c r="F68" s="5" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>356</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4946,19 +4946,19 @@
         <v>9</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>825</v>
+        <v>992</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4966,19 +4966,19 @@
         <v>9</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>825</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4986,19 +4986,19 @@
         <v>9</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5009,16 +5009,16 @@
         <v>414</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5026,19 +5026,19 @@
         <v>9</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -5046,19 +5046,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,19 +5066,19 @@
         <v>9</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,19 +5086,19 @@
         <v>9</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>816</v>
+        <v>993</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -5106,19 +5106,19 @@
         <v>9</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>817</v>
+        <v>994</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -5126,24 +5126,24 @@
         <v>9</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>9</v>
@@ -5155,7 +5155,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>9</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>9</v>
@@ -5175,7 +5175,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>9</v>
@@ -5183,22 +5183,22 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -5212,18 +5212,18 @@
         <v>434</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>9</v>
@@ -5235,7 +5235,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>9</v>
@@ -5243,22 +5243,22 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="D89" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -5272,13 +5272,13 @@
         <v>375</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>376</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -5292,18 +5292,18 @@
         <v>424</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>425</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>9</v>
@@ -5315,7 +5315,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>9</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>392</v>
@@ -5332,13 +5332,13 @@
         <v>393</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -5352,33 +5352,33 @@
         <v>402</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>510</v>
-      </c>
       <c r="F95" s="5" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5386,19 +5386,19 @@
         <v>351</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>352</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>353</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>822</v>
+        <v>995</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5412,27 +5412,27 @@
         <v>370</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>9</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>9</v>
@@ -5463,19 +5463,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>9</v>
@@ -5483,19 +5483,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>534</v>
-      </c>
       <c r="D101" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>9</v>
@@ -5503,19 +5503,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>9</v>
@@ -5523,39 +5523,39 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>548</v>
-      </c>
       <c r="F103" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C104" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>813</v>
-      </c>
       <c r="E104" s="5" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>9</v>
@@ -5563,19 +5563,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>9</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>9</v>
@@ -5603,19 +5603,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>814</v>
-      </c>
       <c r="E107" s="5" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>9</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>365</v>
@@ -5632,7 +5632,7 @@
         <v>366</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>367</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>9</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>362</v>
@@ -5672,18 +5672,18 @@
         <v>371</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>372</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>9</v>
@@ -5692,18 +5692,18 @@
         <v>9</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>826</v>
+        <v>996</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>408</v>
@@ -5712,27 +5712,27 @@
         <v>409</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>410</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>9</v>
@@ -5743,16 +5743,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>9</v>
@@ -5766,13 +5766,13 @@
         <v>9</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>9</v>
@@ -5786,13 +5786,13 @@
         <v>9</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>9</v>
@@ -5803,19 +5803,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>9</v>
@@ -5823,16 +5823,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>9</v>
@@ -5843,27 +5843,27 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>902</v>
-      </c>
       <c r="C119" s="5" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>374</v>
@@ -5872,50 +5872,50 @@
         <v>436</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>437</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>9</v>
@@ -5923,19 +5923,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>9</v>
@@ -5949,13 +5949,13 @@
         <v>312</v>
       </c>
       <c r="C124" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>9</v>
@@ -5969,13 +5969,13 @@
         <v>347</v>
       </c>
       <c r="C125" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>9</v>
@@ -5989,13 +5989,13 @@
         <v>347</v>
       </c>
       <c r="C126" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>9</v>
@@ -6009,13 +6009,13 @@
         <v>314</v>
       </c>
       <c r="C127" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>9</v>
@@ -6029,13 +6029,13 @@
         <v>347</v>
       </c>
       <c r="C128" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>9</v>
@@ -6049,13 +6049,13 @@
         <v>347</v>
       </c>
       <c r="C129" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>9</v>
@@ -6069,13 +6069,13 @@
         <v>348</v>
       </c>
       <c r="C130" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>9</v>
@@ -6089,13 +6089,13 @@
         <v>348</v>
       </c>
       <c r="C131" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>9</v>
@@ -6109,13 +6109,13 @@
         <v>348</v>
       </c>
       <c r="C132" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>9</v>
@@ -6129,13 +6129,13 @@
         <v>348</v>
       </c>
       <c r="C133" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>9</v>
@@ -6149,13 +6149,13 @@
         <v>348</v>
       </c>
       <c r="C134" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>9</v>
@@ -6166,16 +6166,16 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="C135" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>9</v>
@@ -6186,16 +6186,16 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="C136" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>9</v>
@@ -6206,16 +6206,16 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="C137" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>9</v>
@@ -6226,16 +6226,16 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="C138" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>9</v>
@@ -6246,16 +6246,16 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="C139" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>9</v>
@@ -6266,16 +6266,16 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="C140" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>9</v>
@@ -6289,13 +6289,13 @@
         <v>323</v>
       </c>
       <c r="C141" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>9</v>
@@ -6306,16 +6306,16 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="C142" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>9</v>
@@ -6326,16 +6326,16 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="C143" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>9</v>
@@ -6346,16 +6346,16 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="C144" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>9</v>
@@ -6366,16 +6366,16 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="C145" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>9</v>
@@ -6389,13 +6389,13 @@
         <v>319</v>
       </c>
       <c r="C146" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>9</v>
@@ -6409,13 +6409,13 @@
         <v>320</v>
       </c>
       <c r="C147" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>9</v>
@@ -6429,13 +6429,13 @@
         <v>314</v>
       </c>
       <c r="C148" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>9</v>
@@ -6449,13 +6449,13 @@
         <v>316</v>
       </c>
       <c r="C149" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>9</v>
@@ -6469,13 +6469,13 @@
         <v>319</v>
       </c>
       <c r="C150" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>9</v>
@@ -6486,16 +6486,16 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="C151" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>9</v>
@@ -6506,16 +6506,16 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="C152" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>9</v>
@@ -6529,13 +6529,13 @@
         <v>316</v>
       </c>
       <c r="C153" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>9</v>
@@ -6546,16 +6546,16 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="C154" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>9</v>
@@ -6566,16 +6566,16 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="C155" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>9</v>
@@ -6589,13 +6589,13 @@
         <v>310</v>
       </c>
       <c r="C156" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>9</v>
@@ -6606,16 +6606,16 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="C157" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>9</v>
@@ -6629,13 +6629,13 @@
         <v>312</v>
       </c>
       <c r="C158" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>9</v>
@@ -6655,7 +6655,7 @@
         <v>9</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>9</v>
@@ -6675,7 +6675,7 @@
         <v>9</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>9</v>
@@ -6695,7 +6695,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>9</v>
@@ -6715,7 +6715,7 @@
         <v>9</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>9</v>
@@ -6735,7 +6735,7 @@
         <v>9</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>9</v>
@@ -6755,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>9</v>
@@ -6775,7 +6775,7 @@
         <v>9</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>9</v>
@@ -6795,7 +6795,7 @@
         <v>9</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>9</v>
@@ -6815,7 +6815,7 @@
         <v>9</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>9</v>
@@ -6835,7 +6835,7 @@
         <v>9</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>9</v>
@@ -6855,7 +6855,7 @@
         <v>9</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>9</v>
@@ -6875,7 +6875,7 @@
         <v>9</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>9</v>
@@ -6895,7 +6895,7 @@
         <v>9</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>9</v>
@@ -6915,7 +6915,7 @@
         <v>9</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>9</v>
@@ -6935,7 +6935,7 @@
         <v>9</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>9</v>
@@ -6955,7 +6955,7 @@
         <v>9</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>9</v>
@@ -6975,7 +6975,7 @@
         <v>9</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>9</v>
@@ -6995,7 +6995,7 @@
         <v>9</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>9</v>
@@ -7015,7 +7015,7 @@
         <v>9</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>9</v>
@@ -7035,7 +7035,7 @@
         <v>9</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>9</v>
@@ -7055,7 +7055,7 @@
         <v>9</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>9</v>
@@ -7075,7 +7075,7 @@
         <v>9</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>9</v>
@@ -7086,16 +7086,16 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="C181" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>9</v>
@@ -10116,7 +10116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>7</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>7</v>
       </c>
@@ -13655,13 +13655,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="B1" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="C1" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="D1">
         <v>89189087756</v>
@@ -13669,13 +13669,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
       <c r="B2" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="C2" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="D2">
         <v>89884163858</v>
@@ -13683,13 +13683,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="B3" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="C3" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="D3">
         <v>89676444300</v>
@@ -13697,10 +13697,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="B4" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -13711,13 +13711,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="B5" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="C5" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="D5">
         <v>89284524041</v>
@@ -13725,13 +13725,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="B6" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="C6" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="D6">
         <v>89184651417</v>
@@ -13739,13 +13739,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="B7" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="C7" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="D7">
         <v>89095210801</v>
@@ -13753,13 +13753,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B8" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="C8" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="D8">
         <v>89183599698</v>
@@ -13767,13 +13767,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="B9" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="C9" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="D9">
         <v>89282340656</v>
@@ -13781,13 +13781,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="B10" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="C10" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="D10">
         <v>89184462444</v>
@@ -13795,13 +13795,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="B11" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="C11" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="D11">
         <v>89057105410</v>
@@ -13809,13 +13809,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="B12" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="C12" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="D12">
         <v>89628868947</v>
@@ -13823,13 +13823,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="B13" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="C13" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="D13">
         <v>89384720705</v>
@@ -13837,13 +13837,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="B14" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="C14" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="D14">
         <v>89883223308</v>

--- a/SOURS/all-clone.xlsx
+++ b/SOURS/all-clone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ДОКУМЕНТЫ\1 смена СВК\Яицких Т.Е\ОПИСИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9CA63-5F91-4B49-918A-25C23B38E606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CD596-FE65-4799-B540-6E7F7DFD3970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3025,46 +3025,46 @@
     <t>БФ вдоль контроль</t>
   </si>
   <si>
-    <t>8-928-457-08-22 \, 8-928-259-02-37</t>
-  </si>
-  <si>
-    <t>8-928-850-17-95 \, 8-918-104-19-66</t>
-  </si>
-  <si>
-    <t>8-928-459-74-87 \, 8-905-885-97-91</t>
-  </si>
-  <si>
-    <t>8-918-108-20-19 \, 8-989-750-67-78</t>
-  </si>
-  <si>
-    <t>Печура Павел \, Сергеевич</t>
-  </si>
-  <si>
     <t xml:space="preserve">БФ \,  </t>
   </si>
   <si>
-    <t>Соловьев Олег \, Николаевич</t>
-  </si>
-  <si>
-    <t>Косметолог \, ОСК</t>
-  </si>
-  <si>
-    <t>HYUNDAI \, IX 35</t>
-  </si>
-  <si>
-    <t>8-918-359-96-98 Евгений \, 8-989-160-60-99 Юлия Парамок</t>
-  </si>
-  <si>
-    <t>8-902-895-11-27 \, 8-904-815-00-30</t>
-  </si>
-  <si>
-    <t>8-902-895-11-27 \, 8-904-815-00-31</t>
-  </si>
-  <si>
-    <t>8-928-457-34-41 \, 8-988-282-38-80</t>
-  </si>
-  <si>
-    <t>8-928-666-99-39 \, 8-918-111-26-61</t>
+    <t>8-928-457-08-22 / 8-928-259-02-37</t>
+  </si>
+  <si>
+    <t>8-928-850-17-95 / 8-918-104-19-66</t>
+  </si>
+  <si>
+    <t>8-928-459-74-87 / 8-905-885-97-91</t>
+  </si>
+  <si>
+    <t>8-918-108-20-19 / 8-989-750-67-78</t>
+  </si>
+  <si>
+    <t>8-918-359-96-98 Евгений / 8-989-160-60-99 Юлия Парамок</t>
+  </si>
+  <si>
+    <t>8-902-895-11-27 / 8-904-815-00-30</t>
+  </si>
+  <si>
+    <t>8-902-895-11-27 / 8-904-815-00-31</t>
+  </si>
+  <si>
+    <t>8-928-457-34-41 / 8-988-282-38-80</t>
+  </si>
+  <si>
+    <t>8-928-666-99-39 / 8-918-111-26-61</t>
+  </si>
+  <si>
+    <t>Косметолог ОСК</t>
+  </si>
+  <si>
+    <t>HYUNDAI IX 35</t>
+  </si>
+  <si>
+    <t>Печура Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Соловьев Олег Николаевич</t>
   </si>
 </sst>
 </file>
@@ -3467,7 +3467,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3518,7 +3518,7 @@
         <v>355</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3558,7 +3558,7 @@
         <v>355</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3638,7 +3638,7 @@
         <v>382</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>407</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>429</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>430</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>435</v>
@@ -3992,7 +3992,7 @@
         <v>634</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>444</v>
@@ -4075,7 +4075,7 @@
         <v>637</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>733</v>
@@ -4646,7 +4646,7 @@
         <v>688</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>537</v>
@@ -4958,7 +4958,7 @@
         <v>658</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>658</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -5098,7 +5098,7 @@
         <v>674</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -5118,7 +5118,7 @@
         <v>674</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -5398,7 +5398,7 @@
         <v>353</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5698,7 +5698,7 @@
         <v>882</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">

--- a/SOURS/all-clone.xlsx
+++ b/SOURS/all-clone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ДОКУМЕНТЫ\1 смена СВК\Яицких Т.Е\ОПИСИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CD596-FE65-4799-B540-6E7F7DFD3970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E41E7DE-F246-4943-A660-732F7A05EA5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3028,33 +3028,6 @@
     <t xml:space="preserve">БФ \,  </t>
   </si>
   <si>
-    <t>8-928-457-08-22 / 8-928-259-02-37</t>
-  </si>
-  <si>
-    <t>8-928-850-17-95 / 8-918-104-19-66</t>
-  </si>
-  <si>
-    <t>8-928-459-74-87 / 8-905-885-97-91</t>
-  </si>
-  <si>
-    <t>8-918-108-20-19 / 8-989-750-67-78</t>
-  </si>
-  <si>
-    <t>8-918-359-96-98 Евгений / 8-989-160-60-99 Юлия Парамок</t>
-  </si>
-  <si>
-    <t>8-902-895-11-27 / 8-904-815-00-30</t>
-  </si>
-  <si>
-    <t>8-902-895-11-27 / 8-904-815-00-31</t>
-  </si>
-  <si>
-    <t>8-928-457-34-41 / 8-988-282-38-80</t>
-  </si>
-  <si>
-    <t>8-928-666-99-39 / 8-918-111-26-61</t>
-  </si>
-  <si>
     <t>Косметолог ОСК</t>
   </si>
   <si>
@@ -3065,6 +3038,33 @@
   </si>
   <si>
     <t>Соловьев Олег Николаевич</t>
+  </si>
+  <si>
+    <t>8-928-457-08-22 , 8-928-259-02-37</t>
+  </si>
+  <si>
+    <t>8-928-850-17-95 , 8-918-104-19-66</t>
+  </si>
+  <si>
+    <t>8-928-459-74-87 , 8-905-885-97-91</t>
+  </si>
+  <si>
+    <t>8-918-108-20-19 , 8-989-750-67-78</t>
+  </si>
+  <si>
+    <t>8-918-359-96-98 Евгений , 8-989-160-60-99 Юлия Парамок</t>
+  </si>
+  <si>
+    <t>8-902-895-11-27 , 8-904-815-00-30</t>
+  </si>
+  <si>
+    <t>8-902-895-11-27 , 8-904-815-00-31</t>
+  </si>
+  <si>
+    <t>8-928-457-34-41 , 8-988-282-38-80</t>
+  </si>
+  <si>
+    <t>8-928-666-99-39 , 8-918-111-26-61</t>
   </si>
 </sst>
 </file>
@@ -3467,7 +3467,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3518,7 +3518,7 @@
         <v>355</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3558,7 +3558,7 @@
         <v>355</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3638,7 +3638,7 @@
         <v>382</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>407</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>429</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>430</v>
@@ -3992,7 +3992,7 @@
         <v>634</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>444</v>
@@ -4075,7 +4075,7 @@
         <v>637</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>733</v>
@@ -4646,7 +4646,7 @@
         <v>688</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>537</v>
@@ -4958,7 +4958,7 @@
         <v>658</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>658</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -5098,7 +5098,7 @@
         <v>674</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -5118,7 +5118,7 @@
         <v>674</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -5398,7 +5398,7 @@
         <v>353</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5698,7 +5698,7 @@
         <v>882</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">

--- a/SOURS/all-clone.xlsx
+++ b/SOURS/all-clone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ДОКУМЕНТЫ\1 смена СВК\Яицких Т.Е\ОПИСИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E41E7DE-F246-4943-A660-732F7A05EA5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B8C591-78E9-4220-9B3E-BA3D7F23BDF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="996">
   <si>
     <t>Примечание</t>
   </si>
@@ -2431,9 +2431,6 @@
     <t>Государственный номер</t>
   </si>
   <si>
-    <t>Руководитель ОП</t>
-  </si>
-  <si>
     <t>Главный врач</t>
   </si>
   <si>
@@ -3025,9 +3022,6 @@
     <t>БФ вдоль контроль</t>
   </si>
   <si>
-    <t xml:space="preserve">БФ \,  </t>
-  </si>
-  <si>
     <t>Косметолог ОСК</t>
   </si>
   <si>
@@ -3065,6 +3059,9 @@
   </si>
   <si>
     <t>8-928-666-99-39 , 8-918-111-26-61</t>
+  </si>
+  <si>
+    <t>Руководитель Отдела Персонала</t>
   </si>
 </sst>
 </file>
@@ -3467,7 +3464,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3503,13 +3500,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>354</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>610</v>
@@ -3518,7 +3515,7 @@
         <v>355</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3535,7 +3532,7 @@
         <v>611</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>701</v>
@@ -3558,7 +3555,7 @@
         <v>355</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3583,7 +3580,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>362</v>
@@ -3638,12 +3635,12 @@
         <v>382</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>383</v>
@@ -3683,7 +3680,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>389</v>
@@ -3778,7 +3775,7 @@
         <v>407</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,7 +3889,7 @@
         <v>429</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>430</v>
@@ -3923,13 +3920,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>983</v>
+        <v>192</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>435</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>647</v>
@@ -3992,7 +3989,7 @@
         <v>634</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>444</v>
@@ -4063,7 +4060,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>454</v>
@@ -4075,7 +4072,7 @@
         <v>637</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>733</v>
@@ -4303,7 +4300,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>487</v>
@@ -4383,7 +4380,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>498</v>
@@ -4583,7 +4580,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>529</v>
@@ -4603,13 +4600,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>531</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>589</v>
@@ -4646,7 +4643,7 @@
         <v>688</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>537</v>
@@ -4669,7 +4666,7 @@
         <v>524</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>593</v>
@@ -4689,7 +4686,7 @@
         <v>540</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>594</v>
@@ -4778,7 +4775,7 @@
         <v>552</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,7 +4866,7 @@
         <v>565</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>605</v>
@@ -4886,19 +4883,19 @@
         <v>688</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>878</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4906,39 +4903,39 @@
         <v>688</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>930</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>935</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4958,7 +4955,7 @@
         <v>658</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4978,7 +4975,7 @@
         <v>658</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -5098,7 +5095,7 @@
         <v>674</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -5109,7 +5106,7 @@
         <v>682</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>699</v>
@@ -5118,7 +5115,7 @@
         <v>674</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -5143,7 +5140,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>9</v>
@@ -5155,7 +5152,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>9</v>
@@ -5163,7 +5160,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>9</v>
@@ -5175,7 +5172,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>785</v>
+        <v>995</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>9</v>
@@ -5195,7 +5192,7 @@
         <v>602</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>764</v>
@@ -5215,7 +5212,7 @@
         <v>646</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>724</v>
@@ -5223,7 +5220,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>9</v>
@@ -5235,7 +5232,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>9</v>
@@ -5255,7 +5252,7 @@
         <v>586</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>756</v>
@@ -5303,7 +5300,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>9</v>
@@ -5315,7 +5312,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>9</v>
@@ -5323,7 +5320,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>392</v>
@@ -5332,10 +5329,10 @@
         <v>393</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>711</v>
@@ -5355,7 +5352,7 @@
         <v>626</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>714</v>
@@ -5369,7 +5366,7 @@
         <v>508</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>579</v>
@@ -5398,7 +5395,7 @@
         <v>353</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5415,7 +5412,7 @@
         <v>616</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>704</v>
@@ -5423,16 +5420,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>798</v>
-      </c>
       <c r="D98" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>9</v>
@@ -5443,7 +5440,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>9</v>
@@ -5463,19 +5460,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>800</v>
-      </c>
       <c r="D100" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>9</v>
@@ -5483,7 +5480,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>532</v>
@@ -5495,7 +5492,7 @@
         <v>590</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>9</v>
@@ -5503,19 +5500,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>802</v>
-      </c>
       <c r="D102" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>9</v>
@@ -5523,7 +5520,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>544</v>
@@ -5543,19 +5540,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>484</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>9</v>
@@ -5563,19 +5560,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>980</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>981</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>9</v>
@@ -5583,7 +5580,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>9</v>
@@ -5603,19 +5600,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>805</v>
-      </c>
       <c r="D107" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>9</v>
@@ -5623,7 +5620,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>365</v>
@@ -5643,7 +5640,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>9</v>
@@ -5663,7 +5660,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>362</v>
@@ -5683,7 +5680,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>9</v>
@@ -5692,18 +5689,18 @@
         <v>9</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>408</v>
@@ -5723,16 +5720,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>852</v>
-      </c>
       <c r="D113" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>9</v>
@@ -5743,16 +5740,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>855</v>
-      </c>
       <c r="D114" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>9</v>
@@ -5766,13 +5763,13 @@
         <v>9</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>857</v>
-      </c>
       <c r="D115" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>9</v>
@@ -5786,13 +5783,13 @@
         <v>9</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>859</v>
-      </c>
       <c r="D116" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>9</v>
@@ -5803,19 +5800,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>667</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>9</v>
@@ -5823,16 +5820,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>9</v>
@@ -5843,27 +5840,27 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>890</v>
-      </c>
       <c r="E119" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>374</v>
@@ -5883,7 +5880,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>667</v>
@@ -5903,19 +5900,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>906</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>907</v>
-      </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>9</v>
@@ -5923,19 +5920,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="D123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="5" t="s">
         <v>909</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>910</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>9</v>
@@ -5949,13 +5946,13 @@
         <v>312</v>
       </c>
       <c r="C124" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>9</v>
@@ -5969,13 +5966,13 @@
         <v>347</v>
       </c>
       <c r="C125" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>9</v>
@@ -5989,13 +5986,13 @@
         <v>347</v>
       </c>
       <c r="C126" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>9</v>
@@ -6009,13 +6006,13 @@
         <v>314</v>
       </c>
       <c r="C127" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>9</v>
@@ -6029,13 +6026,13 @@
         <v>347</v>
       </c>
       <c r="C128" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>9</v>
@@ -6049,13 +6046,13 @@
         <v>347</v>
       </c>
       <c r="C129" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>9</v>
@@ -6069,13 +6066,13 @@
         <v>348</v>
       </c>
       <c r="C130" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>9</v>
@@ -6089,13 +6086,13 @@
         <v>348</v>
       </c>
       <c r="C131" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>9</v>
@@ -6109,13 +6106,13 @@
         <v>348</v>
       </c>
       <c r="C132" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>9</v>
@@ -6129,13 +6126,13 @@
         <v>348</v>
       </c>
       <c r="C133" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>9</v>
@@ -6149,13 +6146,13 @@
         <v>348</v>
       </c>
       <c r="C134" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>9</v>
@@ -6166,16 +6163,16 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C135" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>9</v>
@@ -6186,16 +6183,16 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C136" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>9</v>
@@ -6206,16 +6203,16 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C137" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>9</v>
@@ -6226,16 +6223,16 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C138" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>9</v>
@@ -6246,16 +6243,16 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C139" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>9</v>
@@ -6266,16 +6263,16 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C140" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>9</v>
@@ -6289,13 +6286,13 @@
         <v>323</v>
       </c>
       <c r="C141" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>9</v>
@@ -6306,16 +6303,16 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C142" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>9</v>
@@ -6326,16 +6323,16 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C143" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>9</v>
@@ -6346,16 +6343,16 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C144" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>9</v>
@@ -6366,16 +6363,16 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C145" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>9</v>
@@ -6389,13 +6386,13 @@
         <v>319</v>
       </c>
       <c r="C146" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>9</v>
@@ -6409,13 +6406,13 @@
         <v>320</v>
       </c>
       <c r="C147" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>9</v>
@@ -6429,13 +6426,13 @@
         <v>314</v>
       </c>
       <c r="C148" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>9</v>
@@ -6449,13 +6446,13 @@
         <v>316</v>
       </c>
       <c r="C149" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>9</v>
@@ -6469,13 +6466,13 @@
         <v>319</v>
       </c>
       <c r="C150" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>9</v>
@@ -6486,16 +6483,16 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C151" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>9</v>
@@ -6506,16 +6503,16 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C152" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>9</v>
@@ -6529,13 +6526,13 @@
         <v>316</v>
       </c>
       <c r="C153" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>9</v>
@@ -6546,16 +6543,16 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C154" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>9</v>
@@ -6566,16 +6563,16 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C155" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>9</v>
@@ -6589,13 +6586,13 @@
         <v>310</v>
       </c>
       <c r="C156" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>9</v>
@@ -6606,16 +6603,16 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C157" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>9</v>
@@ -6629,13 +6626,13 @@
         <v>312</v>
       </c>
       <c r="C158" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>9</v>
@@ -6655,7 +6652,7 @@
         <v>9</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>9</v>
@@ -6675,7 +6672,7 @@
         <v>9</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>9</v>
@@ -6695,7 +6692,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>9</v>
@@ -6715,7 +6712,7 @@
         <v>9</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>9</v>
@@ -6735,7 +6732,7 @@
         <v>9</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>9</v>
@@ -6755,7 +6752,7 @@
         <v>9</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>9</v>
@@ -6775,7 +6772,7 @@
         <v>9</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>9</v>
@@ -6795,7 +6792,7 @@
         <v>9</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>9</v>
@@ -6815,7 +6812,7 @@
         <v>9</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>9</v>
@@ -6835,7 +6832,7 @@
         <v>9</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>9</v>
@@ -6855,7 +6852,7 @@
         <v>9</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>9</v>
@@ -6875,7 +6872,7 @@
         <v>9</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>9</v>
@@ -6895,7 +6892,7 @@
         <v>9</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>9</v>
@@ -6915,7 +6912,7 @@
         <v>9</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>9</v>
@@ -6935,7 +6932,7 @@
         <v>9</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>9</v>
@@ -6955,7 +6952,7 @@
         <v>9</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>9</v>
@@ -6975,7 +6972,7 @@
         <v>9</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>9</v>
@@ -6995,7 +6992,7 @@
         <v>9</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>9</v>
@@ -7015,7 +7012,7 @@
         <v>9</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>9</v>
@@ -7035,7 +7032,7 @@
         <v>9</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>9</v>
@@ -7055,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>9</v>
@@ -7075,7 +7072,7 @@
         <v>9</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>9</v>
@@ -7086,16 +7083,16 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C181" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>9</v>
@@ -13655,13 +13652,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B1" t="s">
         <v>940</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>941</v>
-      </c>
-      <c r="C1" t="s">
-        <v>942</v>
       </c>
       <c r="D1">
         <v>89189087756</v>
@@ -13669,13 +13666,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B2" t="s">
         <v>943</v>
       </c>
-      <c r="B2" t="s">
-        <v>944</v>
-      </c>
       <c r="C2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D2">
         <v>89884163858</v>
@@ -13683,13 +13680,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B3" t="s">
         <v>945</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>946</v>
-      </c>
-      <c r="C3" t="s">
-        <v>947</v>
       </c>
       <c r="D3">
         <v>89676444300</v>
@@ -13697,10 +13694,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B4" t="s">
         <v>948</v>
-      </c>
-      <c r="B4" t="s">
-        <v>949</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -13711,13 +13708,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B5" t="s">
         <v>950</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>951</v>
-      </c>
-      <c r="C5" t="s">
-        <v>952</v>
       </c>
       <c r="D5">
         <v>89284524041</v>
@@ -13725,13 +13722,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>952</v>
+      </c>
+      <c r="B6" t="s">
         <v>953</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>954</v>
-      </c>
-      <c r="C6" t="s">
-        <v>955</v>
       </c>
       <c r="D6">
         <v>89184651417</v>
@@ -13739,13 +13736,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>955</v>
+      </c>
+      <c r="B7" t="s">
         <v>956</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>957</v>
-      </c>
-      <c r="C7" t="s">
-        <v>958</v>
       </c>
       <c r="D7">
         <v>89095210801</v>
@@ -13756,10 +13753,10 @@
         <v>658</v>
       </c>
       <c r="B8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D8">
         <v>89183599698</v>
@@ -13767,13 +13764,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D9">
         <v>89282340656</v>
@@ -13781,13 +13778,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D10">
         <v>89184462444</v>
@@ -13795,13 +13792,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D11">
         <v>89057105410</v>
@@ -13809,13 +13806,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D12">
         <v>89628868947</v>
@@ -13823,13 +13820,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B13" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D13">
         <v>89384720705</v>
@@ -13837,13 +13834,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B14" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C14" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D14">
         <v>89883223308</v>

--- a/SOURS/all-clone.xlsx
+++ b/SOURS/all-clone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ДОКУМЕНТЫ\1 смена СВК\Яицких Т.Е\ОПИСИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B8C591-78E9-4220-9B3E-BA3D7F23BDF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A60DC3B-E13F-4FA8-BBF7-993F779FE953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="1000">
   <si>
     <t>Примечание</t>
   </si>
@@ -3062,6 +3062,18 @@
   </si>
   <si>
     <t>Руководитель Отдела Персонала</t>
+  </si>
+  <si>
+    <t>Машину поменяла</t>
+  </si>
+  <si>
+    <t>Фольксваген Джетта</t>
+  </si>
+  <si>
+    <t>Р 369 ЕУ 68</t>
+  </si>
+  <si>
+    <t>Руководитель службы питания и анимации</t>
   </si>
 </sst>
 </file>
@@ -3459,7 +3471,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5263,16 +5275,16 @@
         <v>373</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>374</v>
+        <v>997</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>375</v>
+        <v>998</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>618</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>376</v>
+        <v>999</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>706</v>
@@ -5840,79 +5852,79 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>873</v>
+        <v>924</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>889</v>
+        <v>9</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>885</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>873</v>
+        <v>924</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>374</v>
+        <v>907</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>436</v>
+        <v>908</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>648</v>
+        <v>9</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>437</v>
+        <v>909</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>726</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>668</v>
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>312</v>
+      </c>
+      <c r="C121" t="s">
+        <v>815</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>669</v>
+        <v>9</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>670</v>
+        <v>882</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>770</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>906</v>
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>347</v>
+      </c>
+      <c r="C122" t="s">
+        <v>816</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>9</v>
@@ -5920,19 +5932,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>908</v>
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>347</v>
+      </c>
+      <c r="C123" t="s">
+        <v>817</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>9</v>
@@ -5943,10 +5955,10 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C124" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>9</v>
@@ -5966,7 +5978,7 @@
         <v>347</v>
       </c>
       <c r="C125" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>9</v>
@@ -5986,7 +5998,7 @@
         <v>347</v>
       </c>
       <c r="C126" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>9</v>
@@ -6003,10 +6015,10 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="C127" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>9</v>
@@ -6023,10 +6035,10 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C128" t="s">
-        <v>819</v>
+        <v>848</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>9</v>
@@ -6043,10 +6055,10 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C129" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
@@ -6066,7 +6078,7 @@
         <v>348</v>
       </c>
       <c r="C130" t="s">
-        <v>821</v>
+        <v>846</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
@@ -6086,7 +6098,7 @@
         <v>348</v>
       </c>
       <c r="C131" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
@@ -6103,10 +6115,10 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>348</v>
+        <v>911</v>
       </c>
       <c r="C132" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
@@ -6123,10 +6135,10 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>348</v>
+        <v>912</v>
       </c>
       <c r="C133" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
@@ -6143,10 +6155,10 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>348</v>
+        <v>913</v>
       </c>
       <c r="C134" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
@@ -6163,10 +6175,10 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C135" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
@@ -6183,10 +6195,10 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C136" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
@@ -6203,10 +6215,10 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C137" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
@@ -6223,10 +6235,10 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>914</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
@@ -6243,10 +6255,10 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C139" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
@@ -6263,10 +6275,10 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C140" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
@@ -6283,10 +6295,10 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>323</v>
+        <v>911</v>
       </c>
       <c r="C141" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
@@ -6303,10 +6315,10 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C142" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
@@ -6323,10 +6335,10 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>918</v>
+        <v>319</v>
       </c>
       <c r="C143" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
@@ -6343,10 +6355,10 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>911</v>
+        <v>320</v>
       </c>
       <c r="C144" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
@@ -6363,10 +6375,10 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>919</v>
+        <v>314</v>
       </c>
       <c r="C145" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>9</v>
@@ -6383,10 +6395,10 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C146" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>9</v>
@@ -6403,10 +6415,10 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C147" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>9</v>
@@ -6423,10 +6435,10 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>314</v>
+        <v>920</v>
       </c>
       <c r="C148" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>9</v>
@@ -6443,10 +6455,10 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>915</v>
       </c>
       <c r="C149" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>9</v>
@@ -6463,10 +6475,10 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C150" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>9</v>
@@ -6483,10 +6495,10 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C151" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>9</v>
@@ -6503,10 +6515,10 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="C152" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>9</v>
@@ -6523,10 +6535,10 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C153" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>9</v>
@@ -6543,10 +6555,10 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C154" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>9</v>
@@ -6563,10 +6575,10 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>922</v>
+        <v>312</v>
       </c>
       <c r="C155" t="s">
-        <v>824</v>
+        <v>936</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>9</v>
@@ -6583,10 +6595,10 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C156" t="s">
-        <v>823</v>
+        <v>325</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>9</v>
@@ -6603,10 +6615,10 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>923</v>
+        <v>310</v>
       </c>
       <c r="C157" t="s">
-        <v>822</v>
+        <v>326</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>9</v>
@@ -6623,10 +6635,10 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s">
-        <v>936</v>
+        <v>327</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>9</v>
@@ -6643,10 +6655,10 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C159" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>9</v>
@@ -6663,10 +6675,10 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C160" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>9</v>
@@ -6683,10 +6695,10 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C161" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>9</v>
@@ -6703,10 +6715,10 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C162" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>9</v>
@@ -6723,10 +6735,10 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C163" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>9</v>
@@ -6743,10 +6755,10 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C164" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>9</v>
@@ -6763,10 +6775,10 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C165" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>9</v>
@@ -6783,10 +6795,10 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C166" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>9</v>
@@ -6803,10 +6815,10 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C167" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>9</v>
@@ -6823,10 +6835,10 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C168" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>9</v>
@@ -6843,10 +6855,10 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C169" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>9</v>
@@ -6863,10 +6875,10 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C170" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>9</v>
@@ -6883,10 +6895,10 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C171" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>9</v>
@@ -6903,10 +6915,10 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C172" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>9</v>
@@ -6923,10 +6935,10 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C173" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>9</v>
@@ -6943,10 +6955,10 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C174" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>9</v>
@@ -6963,10 +6975,10 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C175" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>9</v>
@@ -6983,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C176" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>9</v>
@@ -7003,10 +7015,10 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C177" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>9</v>
@@ -7023,10 +7035,10 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>323</v>
+        <v>938</v>
       </c>
       <c r="C178" t="s">
-        <v>344</v>
+        <v>937</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>9</v>
@@ -7042,17 +7054,17 @@
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B179" t="s">
-        <v>323</v>
-      </c>
-      <c r="C179" t="s">
-        <v>345</v>
+      <c r="B179" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>882</v>
+        <v>9</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>9</v>
@@ -7060,42 +7072,82 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B180" t="s">
-        <v>324</v>
-      </c>
-      <c r="C180" t="s">
-        <v>346</v>
+        <v>996</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>9</v>
+        <v>618</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>882</v>
+        <v>376</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>9</v>
+        <v>706</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B181" t="s">
-        <v>938</v>
-      </c>
-      <c r="C181" t="s">
-        <v>937</v>
+        <v>873</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>888</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>9</v>
+        <v>889</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>9</v>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
